--- a/experiments/sl-fmri-expt/dec2018_fmri/visual/visual_run3_4.xlsx
+++ b/experiments/sl-fmri-expt/dec2018_fmri/visual/visual_run3_4.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qlab\Documents\new_fmri\visual\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brainstim\Documents\modified_fmri\modified_fmri\modified_visual\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,69 +24,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="19">
+  <si>
+    <t>repetition</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>trialnum</t>
+  </si>
   <si>
     <t>image</t>
   </si>
   <si>
-    <t>trialnum</t>
-  </si>
-  <si>
-    <t>condition</t>
-  </si>
-  <si>
-    <t>word</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>repetition</t>
-  </si>
-  <si>
-    <t>Alien2.bmp</t>
+    <t>B.png</t>
   </si>
   <si>
     <t>R</t>
   </si>
   <si>
-    <t>Alien6.bmp</t>
-  </si>
-  <si>
-    <t>Alien1.bmp</t>
-  </si>
-  <si>
-    <t>Alien5.bmp</t>
-  </si>
-  <si>
-    <t>Alien3.bmp</t>
-  </si>
-  <si>
-    <t>Alien7.bmp</t>
-  </si>
-  <si>
-    <t>Alien4.bmp</t>
-  </si>
-  <si>
-    <t>Alien12.bmp</t>
-  </si>
-  <si>
-    <t>Alien9.bmp</t>
-  </si>
-  <si>
-    <t>Alien11.bmp</t>
-  </si>
-  <si>
-    <t>Alien8.bmp</t>
-  </si>
-  <si>
-    <t>Alien10.bmp</t>
-  </si>
-  <si>
-    <t>blank.png</t>
-  </si>
-  <si>
-    <t>B</t>
+    <t>A.png</t>
+  </si>
+  <si>
+    <t>K.png</t>
+  </si>
+  <si>
+    <t>D.png</t>
+  </si>
+  <si>
+    <t>C.png</t>
+  </si>
+  <si>
+    <t>M.png</t>
+  </si>
+  <si>
+    <t>E.png</t>
+  </si>
+  <si>
+    <t>J.png</t>
+  </si>
+  <si>
+    <t>F.png</t>
+  </si>
+  <si>
+    <t>L.png</t>
+  </si>
+  <si>
+    <t>G.png</t>
+  </si>
+  <si>
+    <t>H.png</t>
   </si>
 </sst>
 </file>
@@ -404,32 +398,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A26" sqref="A26:F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -437,7 +431,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>409</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -454,10 +448,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>410</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -477,7 +471,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>411</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -494,10 +488,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>412</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -514,10 +508,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B6">
-        <v>413</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -537,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>414</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -554,10 +548,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>415</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -577,7 +571,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>416</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -594,10 +588,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>417</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -614,10 +608,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>418</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -634,10 +628,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>419</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -654,10 +648,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>420</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -674,10 +668,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>421</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -694,10 +688,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B15">
-        <v>422</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -714,10 +708,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>423</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -734,10 +728,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B17">
-        <v>424</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -754,10 +748,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>425</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -774,10 +768,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19">
-        <v>426</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -794,10 +788,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20">
-        <v>427</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -814,10 +808,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B21">
-        <v>428</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -834,10 +828,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B22">
-        <v>429</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -854,10 +848,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B23">
-        <v>430</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
@@ -874,10 +868,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24">
-        <v>431</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
@@ -894,10 +888,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B25">
-        <v>432</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -914,250 +908,250 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B38">
-        <v>433</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
@@ -1174,10 +1168,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B39">
-        <v>434</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
@@ -1197,7 +1191,7 @@
         <v>15</v>
       </c>
       <c r="B40">
-        <v>435</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
@@ -1214,10 +1208,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B41">
-        <v>436</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
@@ -1234,10 +1228,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B42">
-        <v>437</v>
+        <v>89</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -1254,10 +1248,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B43">
-        <v>438</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
@@ -1274,10 +1268,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B44">
-        <v>439</v>
+        <v>91</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
@@ -1297,7 +1291,7 @@
         <v>10</v>
       </c>
       <c r="B45">
-        <v>440</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -1314,10 +1308,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B46">
-        <v>441</v>
+        <v>93</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
@@ -1334,10 +1328,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B47">
-        <v>442</v>
+        <v>94</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
@@ -1354,10 +1348,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B48">
-        <v>443</v>
+        <v>95</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
@@ -1374,10 +1368,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B49">
-        <v>444</v>
+        <v>96</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
@@ -1390,486 +1384,6 @@
       </c>
       <c r="F49">
         <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50">
-        <v>445</v>
-      </c>
-      <c r="C50" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>17</v>
-      </c>
-      <c r="B51">
-        <v>446</v>
-      </c>
-      <c r="C51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>2</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52">
-        <v>447</v>
-      </c>
-      <c r="C52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>3</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53">
-        <v>448</v>
-      </c>
-      <c r="C53" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54">
-        <v>449</v>
-      </c>
-      <c r="C54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>2</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55">
-        <v>450</v>
-      </c>
-      <c r="C55" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>3</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56">
-        <v>451</v>
-      </c>
-      <c r="C56" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>14</v>
-      </c>
-      <c r="B57">
-        <v>452</v>
-      </c>
-      <c r="C57" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>2</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58">
-        <v>453</v>
-      </c>
-      <c r="C58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>3</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>12</v>
-      </c>
-      <c r="B59">
-        <v>454</v>
-      </c>
-      <c r="C59" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60">
-        <v>455</v>
-      </c>
-      <c r="C60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>2</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61">
-        <v>456</v>
-      </c>
-      <c r="C61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>3</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>19</v>
-      </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="C62" t="s">
-        <v>20</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>19</v>
-      </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="C63" t="s">
-        <v>20</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>19</v>
-      </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-      <c r="C64" t="s">
-        <v>20</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>19</v>
-      </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="C65" t="s">
-        <v>20</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>19</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="C66" t="s">
-        <v>20</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>19</v>
-      </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="C67" t="s">
-        <v>20</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>19</v>
-      </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-      <c r="C68" t="s">
-        <v>20</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>19</v>
-      </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-      <c r="C69" t="s">
-        <v>20</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>19</v>
-      </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-      <c r="C70" t="s">
-        <v>20</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>19</v>
-      </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-      <c r="C71" t="s">
-        <v>20</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>19</v>
-      </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
-      <c r="C72" t="s">
-        <v>20</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>19</v>
-      </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-      <c r="C73" t="s">
-        <v>20</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
